--- a/doc/모드버스 통신 데이터 블록 정의.xlsx
+++ b/doc/모드버스 통신 데이터 블록 정의.xlsx
@@ -1681,6 +1681,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1693,7 +1732,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1703,51 +1748,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2188,34 +2188,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103" t="s">
+      <c r="C1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="111" t="s">
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="112"/>
+      <c r="X1" s="107"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="73" t="s">
@@ -3028,27 +3028,27 @@
       <c r="C14" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
       <c r="K14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M14" s="13"/>
-      <c r="N14" s="108" t="s">
+      <c r="N14" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="109"/>
+      <c r="O14" s="124"/>
       <c r="P14" s="75" t="s">
         <v>41</v>
       </c>
@@ -3129,10 +3129,10 @@
         <v>3</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="114" t="s">
+      <c r="N16" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="115"/>
+      <c r="O16" s="110"/>
       <c r="P16" s="77" t="s">
         <v>50</v>
       </c>
@@ -3149,19 +3149,19 @@
       <c r="C17" s="78">
         <v>1</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="125"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="23">
         <v>1</v>
       </c>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
       <c r="K17" s="10">
         <v>1</v>
       </c>
@@ -3201,10 +3201,10 @@
         <v>46</v>
       </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="117" t="s">
+      <c r="N18" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="115"/>
+      <c r="O18" s="110"/>
       <c r="P18" s="79" t="s">
         <v>60</v>
       </c>
@@ -3263,10 +3263,10 @@
         <v>48</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="118" t="s">
+      <c r="N20" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="119"/>
+      <c r="O20" s="115"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3304,14 +3304,14 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N22" s="116" t="s">
+      <c r="N22" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="107"/>
+      <c r="O22" s="112"/>
     </row>
     <row r="23" spans="1:22" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="15">
